--- a/DesignerConfigs/Datas/test/test_ref.xlsx
+++ b/DesignerConfigs/Datas/test/test_ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C6F4EB-3F43-4486-BBDE-27EF33E2DF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F7594-19DF-4B4F-960F-F49B81F0CA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31245" yWindow="2580" windowWidth="25335" windowHeight="12915" xr2:uid="{BBF76886-6988-4A6B-B2C1-2214DF1F7DF5}"/>
+    <workbookView xWindow="30315" yWindow="1515" windowWidth="25335" windowHeight="12915" activeTab="1" xr2:uid="{BBF76886-6988-4A6B-B2C1-2214DF1F7DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,7 +135,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>__tag__</t>
+    <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781D2FE9-E0F7-4DAA-99D6-C65767F78063}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,106 +512,101 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -623,30 +618,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4FEE63-82D7-42D2-B4C8-614407881942}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -654,7 +655,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -662,7 +663,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -670,7 +671,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -678,7 +679,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -686,7 +687,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -694,7 +695,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -702,7 +703,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -710,17 +711,9 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
         <v>10</v>
       </c>
     </row>

--- a/DesignerConfigs/Datas/test/test_ref.xlsx
+++ b/DesignerConfigs/Datas/test/test_ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F7594-19DF-4B4F-960F-F49B81F0CA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F57DA0-4F81-43D9-A71C-B3ECACBADC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30315" yWindow="1515" windowWidth="25335" windowHeight="12915" activeTab="1" xr2:uid="{BBF76886-6988-4A6B-B2C1-2214DF1F7DF5}"/>
+    <workbookView xWindow="30165" yWindow="1500" windowWidth="25335" windowHeight="12915" xr2:uid="{BBF76886-6988-4A6B-B2C1-2214DF1F7DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,14 @@
   </si>
   <si>
     <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d2&amp;sep=,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,15 +508,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781D2FE9-E0F7-4DAA-99D6-C65767F78063}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,31 +527,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -551,31 +565,37 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -586,27 +606,33 @@
         <v>20</v>
       </c>
       <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -620,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4FEE63-82D7-42D2-B4C8-614407881942}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/DesignerConfigs/Datas/test/test_ref.xlsx
+++ b/DesignerConfigs/Datas/test/test_ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F57DA0-4F81-43D9-A71C-B3ECACBADC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06229234-AA94-496D-BE10-C8B99F008431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="1500" windowWidth="25335" windowHeight="12915" xr2:uid="{BBF76886-6988-4A6B-B2C1-2214DF1F7DF5}"/>
+    <workbookView xWindow="30360" yWindow="1470" windowWidth="25335" windowHeight="12915" xr2:uid="{BBF76886-6988-4A6B-B2C1-2214DF1F7DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,42 +79,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5,6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25,26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22,23,24,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +121,70 @@
   <si>
     <t>d2&amp;sep=,</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>5,6,8</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>5,6,9</t>
+  </si>
+  <si>
+    <t>6,9</t>
   </si>
 </sst>
 </file>
@@ -508,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781D2FE9-E0F7-4DAA-99D6-C65767F78063}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -551,15 +591,145 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>11</v>
+      </c>
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -571,69 +741,46 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
       <c r="M4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>11</v>
+      </c>
+      <c r="U4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -654,13 +801,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/DesignerConfigs/Datas/test/test_ref.xlsx
+++ b/DesignerConfigs/Datas/test/test_ref.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06229234-AA94-496D-BE10-C8B99F008431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBC80A7-975B-4F38-A165-F9D9FB0AFC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1470" windowWidth="25335" windowHeight="12915" xr2:uid="{BBF76886-6988-4A6B-B2C1-2214DF1F7DF5}"/>
+    <workbookView xWindow="30360" yWindow="825" windowWidth="25140" windowHeight="14325" xr2:uid="{BBF76886-6988-4A6B-B2C1-2214DF1F7DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="1" r:id="rId1"/>
-    <sheet name="be_ref" sheetId="2" r:id="rId2"/>
+    <sheet name="be_ref1" sheetId="2" r:id="rId2"/>
+    <sheet name="be_ref2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +186,10 @@
   </si>
   <si>
     <t>6,9</t>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -548,15 +553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781D2FE9-E0F7-4DAA-99D6-C65767F78063}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,49 +578,52 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -628,50 +636,53 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="O2">
-        <v>1</v>
+      <c r="N2" t="s">
+        <v>16</v>
       </c>
       <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>11</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
       <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
         <v>11</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -684,50 +695,53 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="O3">
-        <v>1</v>
+      <c r="N3" t="s">
+        <v>16</v>
       </c>
       <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>11</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>28</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
       <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
         <v>11</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3</v>
       </c>
@@ -740,46 +754,49 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>40</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
       </c>
       <c r="M4" t="s">
         <v>16</v>
       </c>
-      <c r="O4">
-        <v>1</v>
+      <c r="N4" t="s">
+        <v>16</v>
       </c>
       <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>11</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>28</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
       <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
         <v>11</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -894,4 +911,112 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665D4D4F-506F-413C-8979-82A5336187BD}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DesignerConfigs/Datas/test/test_ref.xlsx
+++ b/DesignerConfigs/Datas/test/test_ref.xlsx
@@ -1,227 +1,511 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBC80A7-975B-4F38-A165-F9D9FB0AFC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="825" windowWidth="25140" windowHeight="14325" xr2:uid="{BBF76886-6988-4A6B-B2C1-2214DF1F7DF5}"/>
+    <workbookView windowWidth="19890" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="1" r:id="rId1"/>
     <sheet name="be_ref1" sheetId="2" r:id="rId2"/>
     <sheet name="be_ref2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1_2</t>
   </si>
   <si>
     <t>x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>a1&amp;sep=,</t>
+  </si>
+  <si>
+    <t>a2&amp;sep=,</t>
+  </si>
+  <si>
+    <t>b1&amp;sep=,</t>
+  </si>
+  <si>
+    <t>b2&amp;sep=,</t>
+  </si>
+  <si>
+    <t>c1&amp;sep=,</t>
+  </si>
+  <si>
+    <t>c2&amp;sep=,</t>
+  </si>
+  <si>
+    <t>d1&amp;sep=,</t>
+  </si>
+  <si>
+    <t>d2&amp;sep=,</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
   </si>
   <si>
     <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d1&amp;sep=,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab5</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>5,6,8</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>5,6,9</t>
+  </si>
+  <si>
+    <t>6,9</t>
   </si>
   <si>
     <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d2&amp;sep=,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ab5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>5,6,8</t>
-  </si>
-  <si>
-    <t>6,8</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>3,6</t>
-  </si>
-  <si>
-    <t>4,7</t>
-  </si>
-  <si>
-    <t>5,6,9</t>
-  </si>
-  <si>
-    <t>6,9</t>
-  </si>
-  <si>
-    <t>x3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -229,9 +513,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -240,17 +766,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -299,7 +869,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -332,26 +902,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -384,23 +937,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,26 +1078,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781D2FE9-E0F7-4DAA-99D6-C65767F78063}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,58 +1103,58 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>25</v>
-      </c>
       <c r="U1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="V1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22">
       <c r="B2">
         <v>1</v>
       </c>
@@ -640,28 +1171,28 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -670,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -679,10 +1210,10 @@
         <v>11</v>
       </c>
       <c r="V2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
       <c r="B3">
         <v>2</v>
       </c>
@@ -699,28 +1230,28 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -729,7 +1260,7 @@
         <v>11</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -738,10 +1269,10 @@
         <v>11</v>
       </c>
       <c r="V3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
       <c r="B4">
         <v>3</v>
       </c>
@@ -758,28 +1289,28 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>39</v>
       </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -788,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -797,37 +1328,38 @@
         <v>11</v>
       </c>
       <c r="V4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4FEE63-82D7-42D2-B4C8-614407881942}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -835,7 +1367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -843,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -851,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -859,7 +1391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -867,7 +1399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -875,7 +1407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -883,7 +1415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -891,7 +1423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -899,7 +1431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -908,22 +1440,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665D4D4F-506F-413C-8979-82A5336187BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4">
         <v>11</v>
       </c>
@@ -942,7 +1475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5">
         <v>12</v>
       </c>
@@ -950,7 +1483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6">
         <v>13</v>
       </c>
@@ -958,7 +1491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7">
         <v>14</v>
       </c>
@@ -966,7 +1499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8">
         <v>15</v>
       </c>
@@ -974,7 +1507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9">
         <v>16</v>
       </c>
@@ -982,7 +1515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10">
         <v>17</v>
       </c>
@@ -990,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11">
         <v>18</v>
       </c>
@@ -998,7 +1531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3">
       <c r="B12">
         <v>19</v>
       </c>
@@ -1006,7 +1539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3">
       <c r="B13">
         <v>20</v>
       </c>
@@ -1015,8 +1548,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/test/test_ref.xlsx
+++ b/DesignerConfigs/Datas/test/test_ref.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8280"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,28 @@
     <t>x3</t>
   </si>
   <si>
-    <t>a1&amp;sep=,</t>
-  </si>
-  <si>
-    <t>a2&amp;sep=,</t>
-  </si>
-  <si>
-    <t>b1&amp;sep=,</t>
-  </si>
-  <si>
-    <t>b2&amp;sep=,</t>
-  </si>
-  <si>
-    <t>c1&amp;sep=,</t>
-  </si>
-  <si>
-    <t>c2&amp;sep=,</t>
-  </si>
-  <si>
-    <t>d1&amp;sep=,</t>
-  </si>
-  <si>
-    <t>d2&amp;sep=,</t>
+    <t>a1#sep=,</t>
+  </si>
+  <si>
+    <t>a2#sep=,</t>
+  </si>
+  <si>
+    <t>b1#sep=,</t>
+  </si>
+  <si>
+    <t>b2#sep=,</t>
+  </si>
+  <si>
+    <t>c1#sep=,</t>
+  </si>
+  <si>
+    <t>c2#sep=,</t>
+  </si>
+  <si>
+    <t>d1#sep=,</t>
+  </si>
+  <si>
+    <t>d2#sep=,</t>
   </si>
   <si>
     <t>e1</t>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/DesignerConfigs/Datas/test/test_ref.xlsx
+++ b/DesignerConfigs/Datas/test/test_ref.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="20328" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>##</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
   </si>
   <si>
     <t>a1#sep=,</t>
@@ -146,24 +149,99 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -171,142 +249,60 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -320,181 +316,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,24 +507,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,36 +521,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,7 +544,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,148 +612,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -767,55 +763,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1084,15 +1080,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1131,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
       <c r="Q1" t="s">
@@ -1144,7 +1140,7 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
       <c r="U1" t="s">
@@ -1153,8 +1149,11 @@
       <c r="V1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="2:22">
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1170,8 +1169,8 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
+      <c r="G2">
+        <v>3001</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -1192,28 +1191,31 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
       </c>
       <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="S2" t="s">
+        <v>28</v>
       </c>
       <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <v>11</v>
       </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22">
+      <c r="W2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
       <c r="B3">
         <v>2</v>
       </c>
@@ -1229,8 +1231,8 @@
       <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>28</v>
+      <c r="G3">
+        <v>3001</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
@@ -1248,31 +1250,34 @@
         <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
       </c>
       <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
         <v>11</v>
       </c>
-      <c r="R3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+      <c r="S3" t="s">
+        <v>28</v>
       </c>
       <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>11</v>
       </c>
-      <c r="V3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22">
+      <c r="W3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1288,8 +1293,8 @@
       <c r="F4">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
+      <c r="G4">
+        <v>3001</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -1307,28 +1312,31 @@
         <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
       </c>
       <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>11</v>
       </c>
-      <c r="R4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
+      <c r="S4" t="s">
+        <v>28</v>
       </c>
       <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>11</v>
       </c>
-      <c r="V4" t="s">
-        <v>27</v>
+      <c r="W4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1354,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1356,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -1454,7 +1462,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1464,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:3">

--- a/DesignerConfigs/Datas/test/test_ref.xlsx
+++ b/DesignerConfigs/Datas/test/test_ref.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="8555"/>
+    <workbookView windowWidth="20015" windowHeight="8015"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>##</t>
   </si>
@@ -81,6 +81,9 @@
     <t>f3</t>
   </si>
   <si>
+    <t>s1</t>
+  </si>
+  <si>
     <t>1,2</t>
   </si>
   <si>
@@ -105,6 +108,12 @@
     <t>ab5</t>
   </si>
   <si>
+    <t>RefBean</t>
+  </si>
+  <si>
+    <t>1|4</t>
+  </si>
+  <si>
     <t>1,3</t>
   </si>
   <si>
@@ -123,6 +132,9 @@
     <t>6,8</t>
   </si>
   <si>
+    <t>1|3</t>
+  </si>
+  <si>
     <t>1,4</t>
   </si>
   <si>
@@ -139,6 +151,9 @@
   </si>
   <si>
     <t>6,9</t>
+  </si>
+  <si>
+    <t>2|3</t>
   </si>
   <si>
     <t>count</t>
@@ -757,9 +772,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1080,15 +1098,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1152,8 +1170,13 @@
       <c r="W1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="2:23">
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="2:26">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1173,28 +1196,28 @@
         <v>3001</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1203,7 +1226,7 @@
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -1212,10 +1235,19 @@
         <v>11</v>
       </c>
       <c r="W2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23">
+        <v>29</v>
+      </c>
+      <c r="X2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26">
       <c r="B3">
         <v>2</v>
       </c>
@@ -1235,28 +1267,28 @@
         <v>3001</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1265,7 +1297,7 @@
         <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -1274,10 +1306,19 @@
         <v>11</v>
       </c>
       <c r="W3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23">
+        <v>29</v>
+      </c>
+      <c r="X3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1297,28 +1338,28 @@
         <v>3001</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1327,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="S4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -1336,10 +1377,22 @@
         <v>11</v>
       </c>
       <c r="W4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="X4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="X1:Z1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1364,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -1472,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:3">
